--- a/Results/Validation_results.xlsx
+++ b/Results/Validation_results.xlsx
@@ -1,34 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135DB183-CE95-418B-A310-6DF340C44552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+  <si>
+    <t>Tooth</t>
+  </si>
+  <si>
+    <t>UP_1</t>
+  </si>
+  <si>
+    <t>UP_2</t>
+  </si>
+  <si>
+    <t>UP_3</t>
+  </si>
+  <si>
+    <t>U_Comment</t>
+  </si>
+  <si>
+    <t>CP_1</t>
+  </si>
+  <si>
+    <t>CP_2</t>
+  </si>
+  <si>
+    <t>CP_3</t>
+  </si>
+  <si>
+    <t>C_Comment</t>
+  </si>
+  <si>
+    <t>LP_1</t>
+  </si>
+  <si>
+    <t>LP_2</t>
+  </si>
+  <si>
+    <t>LP_3</t>
+  </si>
+  <si>
+    <t>L_Comment</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A3_5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +148,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +450,920 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>